--- a/data/trans_dic/P23_7_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_7_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares (tasa de respuesta: 99,57%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,08</t>
+          <t>0,0; 16,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 12,23</t>
+          <t>0,0; 20,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 23,15</t>
+          <t>0,0; 21,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 14,47</t>
+          <t>0,0; 21,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 10,27</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 16,06</t>
+          <t>0,0; 14,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 9,98</t>
+          <t>2,06; 19,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,62</t>
+          <t>1,93; 17,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 16,03</t>
+          <t>0,0; 10,09</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,29; 12,37</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 16,47</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 15,8</t>
         </is>
       </c>
     </row>
@@ -742,12 +797,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,32 +812,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,68%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,54</t>
+          <t>0,0; 42,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,59</t>
+          <t>1,56; 48,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 8,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,55</t>
+          <t>1,41; 12,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,93</t>
+          <t>1,49; 14,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,3</t>
+          <t>0,0; 4,43</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 27,95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 7,01</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 36,05</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 11,81</t>
+          <t>1,59; 12,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 29,27</t>
+          <t>1,76; 16,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 14,12</t>
+          <t>6,03; 25,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 9,94</t>
+          <t>3,76; 20,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,13</t>
+          <t>1,98; 11,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 9,9</t>
+          <t>0,84; 9,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,76</t>
+          <t>1,97; 11,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 15,56</t>
+          <t>0,76; 9,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,64</t>
+          <t>2,49; 10,03</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,15; 9,44</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,49; 14,03</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 11,37</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 8,08</t>
+          <t>0,0; 7,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,06</t>
+          <t>0,0; 6,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 9,15</t>
+          <t>0,97; 9,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,35</t>
+          <t>2,29; 12,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 16,21</t>
+          <t>5,01; 17,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 12,74</t>
+          <t>6,75; 19,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,39</t>
+          <t>3,76; 14,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,64</t>
+          <t>7,53; 21,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,2</t>
+          <t>3,78; 10,94</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4,19; 11,42</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 10,05</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,16; 14,03</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 16,0</t>
+          <t>1,51; 13,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 27,4</t>
+          <t>2,95; 34,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 10,36</t>
+          <t>1,34; 12,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 16,77</t>
+          <t>1,32; 12,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 15,32</t>
+          <t>1,97; 17,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,39; 20,82</t>
+          <t>0,0; 13,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,05; 13,68</t>
+          <t>3,83; 21,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 17,39</t>
+          <t>8,01; 30,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 13,53</t>
+          <t>3,09; 12,06</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 25,72</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 13,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 17,66</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 14,3</t>
+          <t>0,0; 12,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,74; 17,65</t>
+          <t>0,0; 15,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 11,08</t>
+          <t>0,0; 16,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 24,62</t>
+          <t>0,0; 13,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,36</t>
+          <t>2,43; 23,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 13,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 17,08</t>
+          <t>0,0; 13,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 10,12</t>
+          <t>2,14; 23,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,36</t>
+          <t>2,45; 14,89</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,89</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 9,63</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 15,46</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,79</t>
+          <t>1,58; 5,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 11,19</t>
+          <t>3,5; 15,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,87</t>
+          <t>2,98; 8,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,4</t>
+          <t>5,04; 18,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,43</t>
+          <t>4,16; 8,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,02</t>
+          <t>2,79; 6,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,68</t>
+          <t>4,27; 9,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,39</t>
+          <t>6,05; 12,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,67</t>
+          <t>3,43; 6,56</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 9,71</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 7,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 12,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas personales y familiares (tasa de respuesta: 99,57%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6029</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6386</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9389</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5668</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9481</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9832</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7141</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11697</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15867</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19221</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17468</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21539</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26796</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 30451</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17953</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17302</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2520; 24184</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2808; 25404</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24325</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2919; 27938</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5727; 41199</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6832; 44982</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36085</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3121</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6096</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8053</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3121</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6096</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>44137</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 60670</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3549; 110710</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13976</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1780; 15815</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2424; 23912</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14787</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 75499</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1538; 19669</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9749; 140621</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8068</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10031</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18313</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19017</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13579</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6267</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10281</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7661</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21647</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16298</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28594</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>26678</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2582; 19581</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2366; 21957</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8159; 33881</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6773; 36182</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5241; 30183</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1752; 18906</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3954; 23105</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1813; 22435</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10619; 42730</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7402; 32440</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15066; 47116</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13365; 47730</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5451</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11385</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22060</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21538</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13959</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>27817</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26363</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23553</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19410</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13139</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10151</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1521; 14341</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4417; 25020</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10845; 37549</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12407; 35209</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6489; 25766</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16020; 44897</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15240; 44121</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14464; 39406</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10399; 33024</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24999; 56945</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8839</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16094</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6407</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6885</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8813</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3979</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9282</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22669</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17652</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20073</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15689</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29554</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2374; 21660</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3844; 44792</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1654; 15489</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2049; 18611</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2250; 19620</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12715</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3550; 19509</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10980; 42480</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8392; 32745</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7826; 57134</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7783; 28845</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14634; 51505</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2745</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6098</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13515</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17921</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16128</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7069</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>24019</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13403</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13292</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13752</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19081</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3256; 31185</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14486</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4444; 48112</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5956; 36212</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14998</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1877; 18829</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8437; 53365</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>27321</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>55416</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>39302</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>88858</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>64732</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>37452</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>53424</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>93952</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>92052</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>92867</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>92725</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>182810</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>14116; 47498</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>26642; 116724</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>23301; 65472</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>52076; 188362</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>42717; 91582</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>23293; 56615</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>35202; 76603</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>66811; 133874</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>65793; 125843</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>60686; 155025</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>67126; 123889</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>135005; 272863</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>